--- a/data/tests/test_data_source.xlsx
+++ b/data/tests/test_data_source.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC62AAB-4C12-7F4F-AAC5-857DCB749C37}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31EC618-6D8A-F748-8D9A-72FF3014061F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4820" yWindow="5020" windowWidth="26180" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4820" yWindow="5020" windowWidth="26180" windowHeight="16460" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="client_data" sheetId="1" r:id="rId1"/>
     <sheet name="project_data_single_1" sheetId="2" r:id="rId2"/>
     <sheet name="project_data_single_2" sheetId="4" r:id="rId3"/>
     <sheet name="project_data_multiple" sheetId="3" r:id="rId4"/>
+    <sheet name="empty" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -625,7 +626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="167" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1198,4 +1199,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1F1F30-03F9-694D-AFB7-16BF524B6F3B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/tests/test_data_source.xlsx
+++ b/data/tests/test_data_source.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31EC618-6D8A-F748-8D9A-72FF3014061F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7000DE17-4FC9-1649-9F0A-34D816586FE8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4820" yWindow="5020" windowWidth="26180" windowHeight="16460" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4820" yWindow="5020" windowWidth="26180" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="client_data" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="67">
   <si>
     <t>John1</t>
   </si>
@@ -184,9 +184,6 @@
   </si>
   <si>
     <t>anrede</t>
-  </si>
-  <si>
-    <t>Herr</t>
   </si>
   <si>
     <t>Frau</t>
@@ -626,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="167" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -653,19 +650,19 @@
         <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>54</v>
@@ -709,7 +706,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -718,10 +715,10 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
@@ -762,7 +759,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -771,10 +768,10 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
@@ -815,7 +812,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -824,10 +821,10 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
@@ -865,10 +862,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -877,10 +874,10 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
@@ -1205,7 +1202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1F1F30-03F9-694D-AFB7-16BF524B6F3B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>

--- a/data/tests/test_data_source.xlsx
+++ b/data/tests/test_data_source.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742E1C6B-F33D-F444-910D-A28E4BA03C42}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5E861B-F65E-4249-ADD2-1F30B430AB19}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4820" yWindow="5020" windowWidth="26180" windowHeight="16460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2960" yWindow="3800" windowWidth="26180" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="client_data" sheetId="1" r:id="rId1"/>
@@ -1635,8 +1635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView zoomScale="167" workbookViewId="0">
-      <selection sqref="A1:R5"/>
+    <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1935,8 +1935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7616D543-70DD-DD41-9688-E543EB6C0FB3}">
   <dimension ref="A1:R201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
